--- a/StructureDefinition-stroke-risk-factor-condition-profile.xlsx
+++ b/StructureDefinition-stroke-risk-factor-condition-profile.xlsx
@@ -87,7 +87,11 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Defines a Condition profile for pre-existing or concurrent conditions that increase stroke risk (e.g., atrial fibrillation/flutter, diabetes, hypertension, coronary disease). The profile fixes category to problem-list-item, binds code (required) to StrokeRiskFactorVS, and supports onset[x] and recordedDate to document chronology and longitudinal tracking. Use this profile to maintain the problem list and to support risk assessment and CDS; do not use it to code the acute stroke event itself.</t>
+    <t>Profile for **pre-existing or concurrent conditions** that increase stroke risk (e.g., AF/flutter, diabetes, hypertension, coronary disease).
+**Key constraints**
+- `Condition.category` is fixed to `problem-list-item` to indicate a problem list entry.
+- `Condition.code` is required and bound (required) to StrokeRiskFactorVS.
+- `Condition.onset[x]` and `Condition.recordedDate` are marked Must Support to enable chronology and longitudinal tracking.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-stroke-risk-factor-condition-profile.xlsx
+++ b/StructureDefinition-stroke-risk-factor-condition-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
